--- a/teaching/traditional_assets/database/data/bahrain/bahrain_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/bahrain/bahrain_financial_svcs_non_bank_insurance.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.006820000000000001</v>
+        <v>-0.0825</v>
       </c>
       <c r="E2">
-        <v>0.0866</v>
+        <v>-0.222</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>59.1</v>
+        <v>12.4</v>
       </c>
       <c r="L2">
-        <v>0.2510620220900595</v>
+        <v>0.07745159275452843</v>
       </c>
       <c r="M2">
-        <v>19.2</v>
+        <v>13.6</v>
       </c>
       <c r="N2">
-        <v>0.04437254448809799</v>
+        <v>0.04987165383204988</v>
       </c>
       <c r="O2">
-        <v>0.3248730964467005</v>
+        <v>1.096774193548387</v>
       </c>
       <c r="P2">
-        <v>19.2</v>
+        <v>13.6</v>
       </c>
       <c r="Q2">
-        <v>0.04437254448809799</v>
+        <v>0.04987165383204988</v>
       </c>
       <c r="R2">
-        <v>0.3248730964467005</v>
+        <v>1.096774193548387</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>17.9</v>
+        <v>24.3</v>
       </c>
       <c r="V2">
-        <v>0.04136815345504968</v>
+        <v>0.08910891089108912</v>
       </c>
       <c r="W2">
-        <v>0.1581905781584582</v>
+        <v>0.03108548508398095</v>
       </c>
       <c r="X2">
-        <v>0.05849091491855732</v>
+        <v>0.05943719655760661</v>
       </c>
       <c r="Y2">
-        <v>0.09969966323990093</v>
+        <v>-0.02835171147362566</v>
       </c>
       <c r="Z2">
-        <v>0.2457202505219207</v>
+        <v>0.1572846055604676</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.07368728404864107</v>
+        <v>0.07230090933964295</v>
       </c>
       <c r="AC2">
-        <v>-0.07368728404864107</v>
+        <v>-0.07230090933964295</v>
       </c>
       <c r="AD2">
-        <v>636.9</v>
+        <v>555.8</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>636.9</v>
+        <v>555.8</v>
       </c>
       <c r="AG2">
-        <v>619</v>
+        <v>531.5</v>
       </c>
       <c r="AH2">
-        <v>0.5954562453253553</v>
+        <v>0.6708509354254677</v>
       </c>
       <c r="AI2">
-        <v>0.6148870438308554</v>
+        <v>0.6117776554760593</v>
       </c>
       <c r="AJ2">
-        <v>0.5885708852334316</v>
+        <v>0.6609052474508829</v>
       </c>
       <c r="AK2">
-        <v>0.6081147460457805</v>
+        <v>0.6011083465279349</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.006820000000000001</v>
+        <v>-0.0825</v>
       </c>
       <c r="E3">
-        <v>0.0866</v>
+        <v>-0.222</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>59.1</v>
+        <v>12.4</v>
       </c>
       <c r="L3">
-        <v>0.2510620220900595</v>
+        <v>0.07745159275452843</v>
       </c>
       <c r="M3">
-        <v>19.2</v>
+        <v>13.6</v>
       </c>
       <c r="N3">
-        <v>0.04437254448809799</v>
+        <v>0.04987165383204988</v>
       </c>
       <c r="O3">
-        <v>0.3248730964467005</v>
+        <v>1.096774193548387</v>
       </c>
       <c r="P3">
-        <v>19.2</v>
+        <v>13.6</v>
       </c>
       <c r="Q3">
-        <v>0.04437254448809799</v>
+        <v>0.04987165383204988</v>
       </c>
       <c r="R3">
-        <v>0.3248730964467005</v>
+        <v>1.096774193548387</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>17.9</v>
+        <v>24.3</v>
       </c>
       <c r="V3">
-        <v>0.04136815345504968</v>
+        <v>0.08910891089108912</v>
       </c>
       <c r="W3">
-        <v>0.1581905781584582</v>
+        <v>0.03108548508398095</v>
       </c>
       <c r="X3">
-        <v>0.05849091491855732</v>
+        <v>0.05943719655760661</v>
       </c>
       <c r="Y3">
-        <v>0.09969966323990093</v>
+        <v>-0.02835171147362566</v>
       </c>
       <c r="Z3">
-        <v>0.2457202505219207</v>
+        <v>0.1572846055604676</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.07368728404864107</v>
+        <v>0.07230090933964295</v>
       </c>
       <c r="AC3">
-        <v>-0.07368728404864107</v>
+        <v>-0.07230090933964295</v>
       </c>
       <c r="AD3">
-        <v>636.9</v>
+        <v>555.8</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>636.9</v>
+        <v>555.8</v>
       </c>
       <c r="AG3">
-        <v>619</v>
+        <v>531.5</v>
       </c>
       <c r="AH3">
-        <v>0.5954562453253553</v>
+        <v>0.6708509354254677</v>
       </c>
       <c r="AI3">
-        <v>0.6148870438308554</v>
+        <v>0.6117776554760593</v>
       </c>
       <c r="AJ3">
-        <v>0.5885708852334316</v>
+        <v>0.6609052474508829</v>
       </c>
       <c r="AK3">
-        <v>0.6081147460457805</v>
+        <v>0.6011083465279349</v>
       </c>
       <c r="AL3">
         <v>0</v>
